--- a/internal/attendanceops/output/salary_details.xlsx
+++ b/internal/attendanceops/output/salary_details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>פודקמינסקי אורית</t>
   </si>
@@ -34,7 +34,7 @@
     <t>ש.רגילות</t>
   </si>
   <si>
-    <t>186</t>
+    <t>158</t>
   </si>
   <si>
     <t>45</t>
@@ -55,7 +55,7 @@
     <t>ימי עבודה</t>
   </si>
   <si>
-    <t>23</t>
+    <t>20</t>
   </si>
   <si>
     <t>חג</t>
@@ -79,27 +79,36 @@
     <t>חימצ'נקו נטליה</t>
   </si>
   <si>
-    <t>184</t>
+    <t>192</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>20</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>שחר שחר</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>מלכה אלישבע</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -109,45 +118,33 @@
     <t>300</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>חלו מורן</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>חלו מורן</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>אלכסנדרוב תמרה</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>7200</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>פרידמן יערית</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>פרידמן יערית</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>עטר גלי רבקה</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t>6000</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>שרץ דריה</t>
@@ -678,10 +672,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>=B23*C23</f>
@@ -693,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -713,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -761,7 +755,7 @@
     <row r="36"/>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
@@ -783,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D39" s="3" t="str">
         <f>=B39*C39</f>
@@ -801,7 +795,10 @@
         <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f>=B41*C41</f>
       </c>
     </row>
     <row r="42"/>
@@ -810,7 +807,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -830,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -878,7 +875,7 @@
     <row r="54"/>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -900,10 +897,10 @@
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D57" s="3" t="str">
         <f>=B57*C57</f>
@@ -918,10 +915,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="3" t="str">
-        <f>=B59*C59</f>
+        <v>32</v>
       </c>
     </row>
     <row r="60"/>
@@ -930,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -950,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -998,7 +992,7 @@
     <row r="72"/>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -1020,13 +1014,13 @@
         <v>5</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f>=B75*C75</f>
       </c>
     </row>
     <row r="76"/>
@@ -1038,7 +1032,10 @@
         <v>9</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="D77" s="3" t="str">
+        <f>=B77*C77</f>
       </c>
     </row>
     <row r="78"/>
@@ -1047,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
@@ -1099,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -1107,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88"/>
@@ -1115,7 +1112,7 @@
     <row r="90"/>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
@@ -1137,13 +1134,13 @@
         <v>5</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94"/>
@@ -1164,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
@@ -1184,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -1216,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105">
@@ -1232,7 +1229,7 @@
     <row r="108"/>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110">
@@ -1254,13 +1251,13 @@
         <v>5</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112"/>
@@ -1281,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116">
@@ -1301,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
@@ -1333,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123">
@@ -1349,7 +1346,7 @@
     <row r="126"/>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128">
@@ -1371,13 +1368,13 @@
         <v>5</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130"/>
@@ -1398,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -1418,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137">
